--- a/Listado DDJJ IVA.xlsx
+++ b/Listado DDJJ IVA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr updateLinks="always"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyecto Uipath\Descarga-DDJJ-IVA-AFIP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Proyectos Uipath\Descarga-DDJJ-IVA-AFIP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24420807-8CD5-48E8-ADBD-16B79D165F41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC6C9100-2C7F-4B24-86FB-CB27DA7AA3F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$T$69</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Listado!$A$1:$U$69</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,8 +40,115 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Agustín Bustos</author>
+  </authors>
+  <commentList>
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{8C2D09DF-6222-49BE-B004-DB37C4D3B092}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT para iniciar sesión en AFIP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{AF217F30-4481-4DD9-AB4F-857D63653EE5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CUIT del representado </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{C5C3532A-CD39-4A17-9D96-9625AF207BAF}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Ubicación de descarga del archivo. Va desde el disco hasta el último bacsklash (\)
+ejemplo: "C:\Directorio de clientes\DDJJ\" </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{1ED7298F-7F9F-449F-9E74-B8BB7116F8B4}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Agustín Bustos:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Si el archivo no se guarda en la ubicación de descarga se debe reemplazar el SI por un NO</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="24">
   <si>
     <t>Nro</t>
   </si>
@@ -108,12 +215,18 @@
   <si>
     <t>DDJJ IVA</t>
   </si>
+  <si>
+    <t>ST</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +251,19 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -2220,12 +2346,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T69"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:U69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2236,15 +2362,15 @@
     <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="8" width="14.5703125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.5703125" customWidth="1"/>
-    <col min="14" max="14" width="15" customWidth="1"/>
-    <col min="15" max="15" width="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.42578125" customWidth="1"/>
+    <col min="11" max="12" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" customWidth="1"/>
+    <col min="15" max="15" width="15" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2273,40 +2399,43 @@
         <v>20</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="str">
         <f t="shared" ref="A2:A33" si="0">RIGHT(D2,1)</f>
         <v>0</v>
@@ -2330,52 +2459,55 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
       <c r="I2" s="3"/>
-      <c r="J2" s="2">
+      <c r="J2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="2">
         <f>F2</f>
         <v>45078</v>
       </c>
-      <c r="K2" s="2">
+      <c r="L2" s="2">
         <f>EOMONTH(F2,0)</f>
         <v>45107</v>
       </c>
-      <c r="L2" s="2" t="str">
-        <f>CONCATENATE(TEXT(A2,"0")," - ","DDJJ IVA - ",YEAR(J2),TEXT(MONTH(J2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
+      <c r="M2" s="2" t="str">
+        <f>CONCATENATE(TEXT(A2,"0")," - ","DDJJ IVA - ",YEAR(K2),TEXT(MONTH(K2),"00")," - ",SUBSTITUTE(D2,"-","")," - ",B2)</f>
         <v>0 - DDJJ IVA - 202306 - 20000000000 - Cliente</v>
       </c>
-      <c r="M2" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;Q2,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N2" s="4" t="str">
+      <c r="N2" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D2&amp;" - "&amp;R2,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O2" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C2,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O2" s="5" t="str">
-        <f>IF(EXACT(N2,E2),"ü","x")</f>
+      <c r="P2" s="5" t="str">
+        <f t="shared" ref="P2:P33" si="1">IF(EXACT(O2,E2),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="P2" s="4">
-        <f>ROW(A2)</f>
+      <c r="Q2" s="4">
+        <f t="shared" ref="Q2:Q33" si="2">ROW(A2)</f>
         <v>2</v>
       </c>
-      <c r="Q2" s="2" t="str">
-        <f>YEAR(J2)&amp;TEXT(MONTH(J2),"00")</f>
+      <c r="R2" s="2" t="str">
+        <f t="shared" ref="R2:R33" si="3">YEAR(K2)&amp;TEXT(MONTH(K2),"00")</f>
         <v>202306</v>
       </c>
-      <c r="R2" s="4">
-        <f>IF(C2=C1,1,0)</f>
+      <c r="S2" s="4">
+        <f t="shared" ref="S2:S33" si="4">IF(C2=C1,1,0)</f>
         <v>0</v>
       </c>
-      <c r="S2" s="4">
-        <f>IF(C2=C3,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="T2" s="4">
-        <f t="shared" ref="T2:T33" si="1">SUM(R2:S2)</f>
+        <f t="shared" ref="T2:T33" si="5">IF(C2=C3,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U2" s="4">
+        <f t="shared" ref="U2:U33" si="6">SUM(S2:T2)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2399,52 +2531,55 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="2">
-        <f t="shared" ref="J3:J66" si="2">F3</f>
-        <v>45078</v>
+      <c r="J3" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K3" s="2">
-        <f t="shared" ref="K3:K66" si="3">EOMONTH(F3,0)</f>
+        <f t="shared" ref="K3:K66" si="7">F3</f>
+        <v>45078</v>
+      </c>
+      <c r="L3" s="2">
+        <f t="shared" ref="L3:L66" si="8">EOMONTH(F3,0)</f>
         <v>45107</v>
       </c>
-      <c r="L3" s="2" t="str">
-        <f t="shared" ref="L3:L66" si="4">CONCATENATE(TEXT(A3,"0")," - ","DDJJ IVA - ",YEAR(J3),TEXT(MONTH(J3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
+      <c r="M3" s="2" t="str">
+        <f t="shared" ref="M3:M66" si="9">CONCATENATE(TEXT(A3,"0")," - ","DDJJ IVA - ",YEAR(K3),TEXT(MONTH(K3),"00")," - ",SUBSTITUTE(D3,"-","")," - ",B3)</f>
         <v>0 - DDJJ IVA - 202306 - 20000000000 - Cliente</v>
       </c>
-      <c r="M3" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;Q3,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N3" s="4" t="str">
+      <c r="N3" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D3&amp;" - "&amp;R3,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O3" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C3,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O3" s="5" t="str">
-        <f>IF(EXACT(N3,E3),"ü","x")</f>
+      <c r="P3" s="5" t="str">
+        <f t="shared" si="1"/>
         <v>x</v>
       </c>
-      <c r="P3" s="4">
-        <f>ROW(A3)</f>
+      <c r="Q3" s="4">
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="Q3" s="2" t="str">
-        <f>YEAR(J3)&amp;TEXT(MONTH(J3),"00")</f>
+      <c r="R3" s="2" t="str">
+        <f t="shared" si="3"/>
         <v>202306</v>
       </c>
-      <c r="R3" s="4">
-        <f>IF(C3=C2,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S3" s="4">
-        <f>IF(C3=C4,1,0)</f>
+        <f t="shared" si="4"/>
         <v>1</v>
       </c>
       <c r="T3" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U3" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2467,52 +2602,55 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
-      <c r="J4" s="2">
+      <c r="J4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K4" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L4" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M4" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N4" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;R4,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O4" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P4" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q4" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K4" s="2">
+        <v>4</v>
+      </c>
+      <c r="R4" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L4" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S4" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M4" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D4&amp;" - "&amp;Q4,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N4" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C4,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O4" s="5" t="str">
-        <f>IF(EXACT(N4,E4),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P4" s="4">
-        <f>ROW(A4)</f>
-        <v>4</v>
-      </c>
-      <c r="Q4" s="2" t="str">
-        <f>YEAR(J4)&amp;TEXT(MONTH(J4),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R4" s="4">
-        <f>IF(C4=C3,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S4" s="4">
-        <f>IF(C4=C5,1,0)</f>
         <v>1</v>
       </c>
       <c r="T4" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U4" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2535,52 +2673,55 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
-      <c r="J5" s="2">
+      <c r="J5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L5" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M5" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N5" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;R5,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O5" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q5" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K5" s="2">
+        <v>5</v>
+      </c>
+      <c r="R5" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L5" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S5" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M5" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D5&amp;" - "&amp;Q5,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N5" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C5,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O5" s="5" t="str">
-        <f>IF(EXACT(N5,E5),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P5" s="4">
-        <f>ROW(A5)</f>
-        <v>5</v>
-      </c>
-      <c r="Q5" s="2" t="str">
-        <f>YEAR(J5)&amp;TEXT(MONTH(J5),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R5" s="4">
-        <f>IF(C5=C4,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S5" s="4">
-        <f>IF(C5=C6,1,0)</f>
         <v>1</v>
       </c>
       <c r="T5" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U5" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2603,52 +2744,55 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="2">
+      <c r="J6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K6" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L6" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M6" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N6" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;R6,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O6" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q6" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K6" s="2">
+        <v>6</v>
+      </c>
+      <c r="R6" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L6" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S6" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M6" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D6&amp;" - "&amp;Q6,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N6" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C6,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O6" s="5" t="str">
-        <f>IF(EXACT(N6,E6),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P6" s="4">
-        <f>ROW(A6)</f>
-        <v>6</v>
-      </c>
-      <c r="Q6" s="2" t="str">
-        <f>YEAR(J6)&amp;TEXT(MONTH(J6),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R6" s="4">
-        <f>IF(C6=C5,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S6" s="4">
-        <f>IF(C6=C7,1,0)</f>
         <v>1</v>
       </c>
       <c r="T6" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U6" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2671,52 +2815,55 @@
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
-      <c r="J7" s="2">
+      <c r="J7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L7" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M7" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N7" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;R7,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O7" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q7" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K7" s="2">
+        <v>7</v>
+      </c>
+      <c r="R7" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L7" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S7" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M7" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D7&amp;" - "&amp;Q7,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N7" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C7,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O7" s="5" t="str">
-        <f>IF(EXACT(N7,E7),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P7" s="4">
-        <f>ROW(A7)</f>
-        <v>7</v>
-      </c>
-      <c r="Q7" s="2" t="str">
-        <f>YEAR(J7)&amp;TEXT(MONTH(J7),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R7" s="4">
-        <f>IF(C7=C6,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S7" s="4">
-        <f>IF(C7=C8,1,0)</f>
         <v>1</v>
       </c>
       <c r="T7" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U7" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2739,52 +2886,55 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="I8" s="3"/>
-      <c r="J8" s="2">
+      <c r="J8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K8" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L8" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M8" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N8" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;R8,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O8" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q8" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K8" s="2">
+        <v>8</v>
+      </c>
+      <c r="R8" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L8" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S8" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M8" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D8&amp;" - "&amp;Q8,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N8" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C8,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O8" s="5" t="str">
-        <f>IF(EXACT(N8,E8),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P8" s="4">
-        <f>ROW(A8)</f>
-        <v>8</v>
-      </c>
-      <c r="Q8" s="2" t="str">
-        <f>YEAR(J8)&amp;TEXT(MONTH(J8),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R8" s="4">
-        <f>IF(C8=C7,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S8" s="4">
-        <f>IF(C8=C9,1,0)</f>
         <v>1</v>
       </c>
       <c r="T8" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U8" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2807,52 +2957,55 @@
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
       <c r="I9" s="3"/>
-      <c r="J9" s="2">
+      <c r="J9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M9" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N9" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;R9,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O9" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K9" s="2">
+        <v>9</v>
+      </c>
+      <c r="R9" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L9" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S9" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M9" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D9&amp;" - "&amp;Q9,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N9" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C9,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O9" s="5" t="str">
-        <f>IF(EXACT(N9,E9),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P9" s="4">
-        <f>ROW(A9)</f>
-        <v>9</v>
-      </c>
-      <c r="Q9" s="2" t="str">
-        <f>YEAR(J9)&amp;TEXT(MONTH(J9),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R9" s="4">
-        <f>IF(C9=C8,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S9" s="4">
-        <f>IF(C9=C10,1,0)</f>
         <v>1</v>
       </c>
       <c r="T9" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U9" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2875,52 +3028,55 @@
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
       <c r="I10" s="3"/>
-      <c r="J10" s="2">
+      <c r="J10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L10" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M10" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N10" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;R10,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O10" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q10" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K10" s="2">
+        <v>10</v>
+      </c>
+      <c r="R10" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L10" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S10" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M10" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D10&amp;" - "&amp;Q10,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N10" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C10,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O10" s="5" t="str">
-        <f>IF(EXACT(N10,E10),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P10" s="4">
-        <f>ROW(A10)</f>
-        <v>10</v>
-      </c>
-      <c r="Q10" s="2" t="str">
-        <f>YEAR(J10)&amp;TEXT(MONTH(J10),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R10" s="4">
-        <f>IF(C10=C9,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S10" s="4">
-        <f>IF(C10=C11,1,0)</f>
         <v>1</v>
       </c>
       <c r="T10" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U10" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2943,52 +3099,55 @@
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3"/>
-      <c r="J11" s="2">
+      <c r="J11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K11" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L11" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M11" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N11" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;R11,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O11" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q11" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K11" s="2">
+        <v>11</v>
+      </c>
+      <c r="R11" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L11" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S11" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M11" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D11&amp;" - "&amp;Q11,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N11" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C11,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O11" s="5" t="str">
-        <f>IF(EXACT(N11,E11),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P11" s="4">
-        <f>ROW(A11)</f>
-        <v>11</v>
-      </c>
-      <c r="Q11" s="2" t="str">
-        <f>YEAR(J11)&amp;TEXT(MONTH(J11),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R11" s="4">
-        <f>IF(C11=C10,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S11" s="4">
-        <f>IF(C11=C12,1,0)</f>
         <v>1</v>
       </c>
       <c r="T11" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U11" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3011,52 +3170,55 @@
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3"/>
-      <c r="J12" s="2">
+      <c r="J12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K12" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L12" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M12" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N12" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;R12,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O12" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q12" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K12" s="2">
+        <v>12</v>
+      </c>
+      <c r="R12" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L12" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S12" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M12" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D12&amp;" - "&amp;Q12,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N12" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C12,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O12" s="5" t="str">
-        <f>IF(EXACT(N12,E12),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P12" s="4">
-        <f>ROW(A12)</f>
-        <v>12</v>
-      </c>
-      <c r="Q12" s="2" t="str">
-        <f>YEAR(J12)&amp;TEXT(MONTH(J12),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R12" s="4">
-        <f>IF(C12=C11,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S12" s="4">
-        <f>IF(C12=C13,1,0)</f>
         <v>1</v>
       </c>
       <c r="T12" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U12" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3079,52 +3241,55 @@
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3"/>
-      <c r="J13" s="2">
+      <c r="J13" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K13" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L13" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M13" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N13" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;R13,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O13" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q13" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K13" s="2">
+        <v>13</v>
+      </c>
+      <c r="R13" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L13" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S13" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M13" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D13&amp;" - "&amp;Q13,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N13" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C13,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O13" s="5" t="str">
-        <f>IF(EXACT(N13,E13),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P13" s="4">
-        <f>ROW(A13)</f>
-        <v>13</v>
-      </c>
-      <c r="Q13" s="2" t="str">
-        <f>YEAR(J13)&amp;TEXT(MONTH(J13),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R13" s="4">
-        <f>IF(C13=C12,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S13" s="4">
-        <f>IF(C13=C14,1,0)</f>
         <v>1</v>
       </c>
       <c r="T13" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U13" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3147,52 +3312,55 @@
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3"/>
-      <c r="J14" s="2">
+      <c r="J14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K14" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L14" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M14" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N14" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;R14,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O14" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q14" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K14" s="2">
+        <v>14</v>
+      </c>
+      <c r="R14" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L14" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S14" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M14" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D14&amp;" - "&amp;Q14,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N14" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C14,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O14" s="5" t="str">
-        <f>IF(EXACT(N14,E14),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P14" s="4">
-        <f>ROW(A14)</f>
-        <v>14</v>
-      </c>
-      <c r="Q14" s="2" t="str">
-        <f>YEAR(J14)&amp;TEXT(MONTH(J14),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R14" s="4">
-        <f>IF(C14=C13,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S14" s="4">
-        <f>IF(C14=C15,1,0)</f>
         <v>1</v>
       </c>
       <c r="T14" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U14" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3215,52 +3383,55 @@
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
       <c r="I15" s="3"/>
-      <c r="J15" s="2">
+      <c r="J15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K15" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L15" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M15" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N15" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;R15,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O15" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q15" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K15" s="2">
+        <v>15</v>
+      </c>
+      <c r="R15" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L15" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S15" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M15" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D15&amp;" - "&amp;Q15,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N15" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C15,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O15" s="5" t="str">
-        <f>IF(EXACT(N15,E15),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P15" s="4">
-        <f>ROW(A15)</f>
-        <v>15</v>
-      </c>
-      <c r="Q15" s="2" t="str">
-        <f>YEAR(J15)&amp;TEXT(MONTH(J15),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R15" s="4">
-        <f>IF(C15=C14,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S15" s="4">
-        <f>IF(C15=C16,1,0)</f>
         <v>1</v>
       </c>
       <c r="T15" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U15" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3283,52 +3454,55 @@
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
       <c r="I16" s="3"/>
-      <c r="J16" s="2">
+      <c r="J16" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L16" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M16" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N16" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;R16,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O16" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q16" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K16" s="2">
+        <v>16</v>
+      </c>
+      <c r="R16" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L16" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S16" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M16" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D16&amp;" - "&amp;Q16,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N16" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C16,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O16" s="5" t="str">
-        <f>IF(EXACT(N16,E16),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P16" s="4">
-        <f>ROW(A16)</f>
-        <v>16</v>
-      </c>
-      <c r="Q16" s="2" t="str">
-        <f>YEAR(J16)&amp;TEXT(MONTH(J16),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R16" s="4">
-        <f>IF(C16=C15,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S16" s="4">
-        <f>IF(C16=C17,1,0)</f>
         <v>1</v>
       </c>
       <c r="T16" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U16" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3351,52 +3525,55 @@
       <c r="G17" s="3"/>
       <c r="H17" s="3"/>
       <c r="I17" s="3"/>
-      <c r="J17" s="2">
+      <c r="J17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L17" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M17" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N17" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;R17,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O17" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q17" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K17" s="2">
+        <v>17</v>
+      </c>
+      <c r="R17" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L17" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S17" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M17" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D17&amp;" - "&amp;Q17,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N17" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C17,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O17" s="5" t="str">
-        <f>IF(EXACT(N17,E17),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P17" s="4">
-        <f>ROW(A17)</f>
-        <v>17</v>
-      </c>
-      <c r="Q17" s="2" t="str">
-        <f>YEAR(J17)&amp;TEXT(MONTH(J17),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R17" s="4">
-        <f>IF(C17=C16,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S17" s="4">
-        <f>IF(C17=C18,1,0)</f>
         <v>1</v>
       </c>
       <c r="T17" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U17" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3419,52 +3596,55 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2">
+      <c r="J18" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L18" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M18" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N18" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;R18,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O18" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q18" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K18" s="2">
+        <v>18</v>
+      </c>
+      <c r="R18" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L18" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S18" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M18" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D18&amp;" - "&amp;Q18,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N18" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C18,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O18" s="5" t="str">
-        <f>IF(EXACT(N18,E18),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P18" s="4">
-        <f>ROW(A18)</f>
-        <v>18</v>
-      </c>
-      <c r="Q18" s="2" t="str">
-        <f>YEAR(J18)&amp;TEXT(MONTH(J18),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R18" s="4">
-        <f>IF(C18=C17,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S18" s="4">
-        <f>IF(C18=C19,1,0)</f>
         <v>1</v>
       </c>
       <c r="T18" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U18" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3487,52 +3667,55 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="2">
+      <c r="J19" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K19" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L19" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M19" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N19" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;R19,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O19" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q19" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K19" s="2">
+        <v>19</v>
+      </c>
+      <c r="R19" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L19" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S19" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M19" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D19&amp;" - "&amp;Q19,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N19" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C19,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O19" s="5" t="str">
-        <f>IF(EXACT(N19,E19),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P19" s="4">
-        <f>ROW(A19)</f>
-        <v>19</v>
-      </c>
-      <c r="Q19" s="2" t="str">
-        <f>YEAR(J19)&amp;TEXT(MONTH(J19),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R19" s="4">
-        <f>IF(C19=C18,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S19" s="4">
-        <f>IF(C19=C20,1,0)</f>
         <v>1</v>
       </c>
       <c r="T19" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U19" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3555,52 +3738,55 @@
       <c r="G20" s="3"/>
       <c r="H20" s="3"/>
       <c r="I20" s="3"/>
-      <c r="J20" s="2">
+      <c r="J20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L20" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M20" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N20" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;R20,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O20" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q20" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K20" s="2">
+        <v>20</v>
+      </c>
+      <c r="R20" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L20" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S20" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M20" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D20&amp;" - "&amp;Q20,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N20" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C20,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O20" s="5" t="str">
-        <f>IF(EXACT(N20,E20),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P20" s="4">
-        <f>ROW(A20)</f>
-        <v>20</v>
-      </c>
-      <c r="Q20" s="2" t="str">
-        <f>YEAR(J20)&amp;TEXT(MONTH(J20),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R20" s="4">
-        <f>IF(C20=C19,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S20" s="4">
-        <f>IF(C20=C21,1,0)</f>
         <v>1</v>
       </c>
       <c r="T20" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U20" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3623,52 +3809,55 @@
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="2">
+      <c r="J21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L21" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M21" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N21" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;R21,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O21" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q21" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K21" s="2">
+        <v>21</v>
+      </c>
+      <c r="R21" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L21" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S21" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M21" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D21&amp;" - "&amp;Q21,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N21" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C21,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O21" s="5" t="str">
-        <f>IF(EXACT(N21,E21),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P21" s="4">
-        <f>ROW(A21)</f>
-        <v>21</v>
-      </c>
-      <c r="Q21" s="2" t="str">
-        <f>YEAR(J21)&amp;TEXT(MONTH(J21),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R21" s="4">
-        <f>IF(C21=C20,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S21" s="4">
-        <f>IF(C21=C22,1,0)</f>
         <v>1</v>
       </c>
       <c r="T21" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U21" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3691,52 +3880,55 @@
       <c r="G22" s="3"/>
       <c r="H22" s="3"/>
       <c r="I22" s="3"/>
-      <c r="J22" s="2">
+      <c r="J22" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K22" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L22" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M22" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N22" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;R22,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O22" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q22" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K22" s="2">
+        <v>22</v>
+      </c>
+      <c r="R22" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L22" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S22" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M22" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D22&amp;" - "&amp;Q22,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N22" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C22,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O22" s="5" t="str">
-        <f>IF(EXACT(N22,E22),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P22" s="4">
-        <f>ROW(A22)</f>
-        <v>22</v>
-      </c>
-      <c r="Q22" s="2" t="str">
-        <f>YEAR(J22)&amp;TEXT(MONTH(J22),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R22" s="4">
-        <f>IF(C22=C21,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S22" s="4">
-        <f>IF(C22=C23,1,0)</f>
         <v>1</v>
       </c>
       <c r="T22" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U22" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3759,52 +3951,55 @@
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
       <c r="I23" s="3"/>
-      <c r="J23" s="2">
+      <c r="J23" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K23" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L23" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M23" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N23" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;R23,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O23" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q23" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K23" s="2">
+        <v>23</v>
+      </c>
+      <c r="R23" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L23" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S23" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M23" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D23&amp;" - "&amp;Q23,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N23" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C23,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O23" s="5" t="str">
-        <f>IF(EXACT(N23,E23),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P23" s="4">
-        <f>ROW(A23)</f>
-        <v>23</v>
-      </c>
-      <c r="Q23" s="2" t="str">
-        <f>YEAR(J23)&amp;TEXT(MONTH(J23),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R23" s="4">
-        <f>IF(C23=C22,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S23" s="4">
-        <f>IF(C23=C24,1,0)</f>
         <v>1</v>
       </c>
       <c r="T23" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U23" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3827,52 +4022,55 @@
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="2">
+      <c r="J24" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K24" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L24" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M24" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N24" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;R24,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O24" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q24" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K24" s="2">
+        <v>24</v>
+      </c>
+      <c r="R24" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L24" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S24" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M24" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D24&amp;" - "&amp;Q24,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N24" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C24,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O24" s="5" t="str">
-        <f>IF(EXACT(N24,E24),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P24" s="4">
-        <f>ROW(A24)</f>
-        <v>24</v>
-      </c>
-      <c r="Q24" s="2" t="str">
-        <f>YEAR(J24)&amp;TEXT(MONTH(J24),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R24" s="4">
-        <f>IF(C24=C23,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S24" s="4">
-        <f>IF(C24=C25,1,0)</f>
         <v>1</v>
       </c>
       <c r="T24" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U24" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3895,52 +4093,55 @@
       <c r="G25" s="3"/>
       <c r="H25" s="3"/>
       <c r="I25" s="3"/>
-      <c r="J25" s="2">
+      <c r="J25" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K25" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L25" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M25" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N25" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;R25,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O25" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q25" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K25" s="2">
+        <v>25</v>
+      </c>
+      <c r="R25" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L25" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S25" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M25" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D25&amp;" - "&amp;Q25,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N25" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C25,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O25" s="5" t="str">
-        <f>IF(EXACT(N25,E25),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P25" s="4">
-        <f>ROW(A25)</f>
-        <v>25</v>
-      </c>
-      <c r="Q25" s="2" t="str">
-        <f>YEAR(J25)&amp;TEXT(MONTH(J25),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R25" s="4">
-        <f>IF(C25=C24,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S25" s="4">
-        <f>IF(C25=C26,1,0)</f>
         <v>1</v>
       </c>
       <c r="T25" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U25" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -3963,52 +4164,55 @@
       <c r="G26" s="3"/>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
-      <c r="J26" s="2">
+      <c r="J26" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K26" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L26" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M26" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N26" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;R26,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O26" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q26" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K26" s="2">
+        <v>26</v>
+      </c>
+      <c r="R26" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L26" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S26" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M26" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D26&amp;" - "&amp;Q26,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N26" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C26,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O26" s="5" t="str">
-        <f>IF(EXACT(N26,E26),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P26" s="4">
-        <f>ROW(A26)</f>
-        <v>26</v>
-      </c>
-      <c r="Q26" s="2" t="str">
-        <f>YEAR(J26)&amp;TEXT(MONTH(J26),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R26" s="4">
-        <f>IF(C26=C25,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S26" s="4">
-        <f>IF(C26=C27,1,0)</f>
         <v>1</v>
       </c>
       <c r="T26" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U26" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4031,52 +4235,55 @@
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
       <c r="I27" s="3"/>
-      <c r="J27" s="2">
+      <c r="J27" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K27" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L27" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M27" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N27" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;R27,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O27" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q27" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K27" s="2">
+        <v>27</v>
+      </c>
+      <c r="R27" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L27" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S27" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M27" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D27&amp;" - "&amp;Q27,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N27" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C27,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O27" s="5" t="str">
-        <f>IF(EXACT(N27,E27),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P27" s="4">
-        <f>ROW(A27)</f>
-        <v>27</v>
-      </c>
-      <c r="Q27" s="2" t="str">
-        <f>YEAR(J27)&amp;TEXT(MONTH(J27),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R27" s="4">
-        <f>IF(C27=C26,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S27" s="4">
-        <f>IF(C27=C28,1,0)</f>
         <v>1</v>
       </c>
       <c r="T27" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4099,52 +4306,55 @@
       <c r="G28" s="3"/>
       <c r="H28" s="3"/>
       <c r="I28" s="3"/>
-      <c r="J28" s="2">
+      <c r="J28" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K28" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L28" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M28" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N28" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;R28,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O28" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q28" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K28" s="2">
+        <v>28</v>
+      </c>
+      <c r="R28" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L28" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S28" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M28" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D28&amp;" - "&amp;Q28,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N28" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C28,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O28" s="5" t="str">
-        <f>IF(EXACT(N28,E28),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P28" s="4">
-        <f>ROW(A28)</f>
-        <v>28</v>
-      </c>
-      <c r="Q28" s="2" t="str">
-        <f>YEAR(J28)&amp;TEXT(MONTH(J28),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R28" s="4">
-        <f>IF(C28=C27,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S28" s="4">
-        <f>IF(C28=C29,1,0)</f>
         <v>1</v>
       </c>
       <c r="T28" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U28" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4167,52 +4377,55 @@
       <c r="G29" s="3"/>
       <c r="H29" s="3"/>
       <c r="I29" s="3"/>
-      <c r="J29" s="2">
+      <c r="J29" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K29" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L29" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M29" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N29" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;R29,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O29" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q29" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K29" s="2">
+        <v>29</v>
+      </c>
+      <c r="R29" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L29" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S29" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M29" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D29&amp;" - "&amp;Q29,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N29" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C29,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O29" s="5" t="str">
-        <f>IF(EXACT(N29,E29),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P29" s="4">
-        <f>ROW(A29)</f>
-        <v>29</v>
-      </c>
-      <c r="Q29" s="2" t="str">
-        <f>YEAR(J29)&amp;TEXT(MONTH(J29),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R29" s="4">
-        <f>IF(C29=C28,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S29" s="4">
-        <f>IF(C29=C30,1,0)</f>
         <v>1</v>
       </c>
       <c r="T29" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U29" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4235,52 +4448,55 @@
       <c r="G30" s="3"/>
       <c r="H30" s="3"/>
       <c r="I30" s="3"/>
-      <c r="J30" s="2">
+      <c r="J30" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L30" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M30" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N30" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;R30,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O30" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q30" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K30" s="2">
+        <v>30</v>
+      </c>
+      <c r="R30" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L30" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S30" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M30" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D30&amp;" - "&amp;Q30,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N30" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C30,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O30" s="5" t="str">
-        <f>IF(EXACT(N30,E30),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P30" s="4">
-        <f>ROW(A30)</f>
-        <v>30</v>
-      </c>
-      <c r="Q30" s="2" t="str">
-        <f>YEAR(J30)&amp;TEXT(MONTH(J30),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R30" s="4">
-        <f>IF(C30=C29,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S30" s="4">
-        <f>IF(C30=C31,1,0)</f>
         <v>1</v>
       </c>
       <c r="T30" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U30" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4303,52 +4519,55 @@
       <c r="G31" s="3"/>
       <c r="H31" s="3"/>
       <c r="I31" s="3"/>
-      <c r="J31" s="2">
+      <c r="J31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K31" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L31" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M31" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N31" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;R31,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O31" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q31" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K31" s="2">
+        <v>31</v>
+      </c>
+      <c r="R31" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L31" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S31" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M31" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D31&amp;" - "&amp;Q31,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N31" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C31,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O31" s="5" t="str">
-        <f>IF(EXACT(N31,E31),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P31" s="4">
-        <f>ROW(A31)</f>
-        <v>31</v>
-      </c>
-      <c r="Q31" s="2" t="str">
-        <f>YEAR(J31)&amp;TEXT(MONTH(J31),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R31" s="4">
-        <f>IF(C31=C30,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S31" s="4">
-        <f>IF(C31=C32,1,0)</f>
         <v>1</v>
       </c>
       <c r="T31" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U31" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4371,52 +4590,55 @@
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
       <c r="I32" s="3"/>
-      <c r="J32" s="2">
+      <c r="J32" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K32" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L32" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M32" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N32" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;R32,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O32" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q32" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K32" s="2">
+        <v>32</v>
+      </c>
+      <c r="R32" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L32" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S32" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M32" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D32&amp;" - "&amp;Q32,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N32" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C32,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O32" s="5" t="str">
-        <f>IF(EXACT(N32,E32),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P32" s="4">
-        <f>ROW(A32)</f>
-        <v>32</v>
-      </c>
-      <c r="Q32" s="2" t="str">
-        <f>YEAR(J32)&amp;TEXT(MONTH(J32),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R32" s="4">
-        <f>IF(C32=C31,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S32" s="4">
-        <f>IF(C32=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T32" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U32" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="str">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -4439,54 +4661,57 @@
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
       <c r="I33" s="3"/>
-      <c r="J33" s="2">
+      <c r="J33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="2">
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L33" s="2">
+        <f t="shared" si="8"/>
+        <v>45107</v>
+      </c>
+      <c r="M33" s="2" t="str">
+        <f t="shared" si="9"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N33" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;R33,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O33" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>x</v>
+      </c>
+      <c r="Q33" s="4">
         <f t="shared" si="2"/>
-        <v>45078</v>
-      </c>
-      <c r="K33" s="2">
+        <v>33</v>
+      </c>
+      <c r="R33" s="2" t="str">
         <f t="shared" si="3"/>
-        <v>45107</v>
-      </c>
-      <c r="L33" s="2" t="str">
+        <v>202306</v>
+      </c>
+      <c r="S33" s="4">
         <f t="shared" si="4"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M33" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D33&amp;" - "&amp;Q33,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N33" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C33,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O33" s="5" t="str">
-        <f>IF(EXACT(N33,E33),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P33" s="4">
-        <f>ROW(A33)</f>
-        <v>33</v>
-      </c>
-      <c r="Q33" s="2" t="str">
-        <f>YEAR(J33)&amp;TEXT(MONTH(J33),"00")</f>
-        <v>202306</v>
-      </c>
-      <c r="R33" s="4">
-        <f>IF(C33=C32,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S33" s="4">
-        <f>IF(C33=C34,1,0)</f>
         <v>1</v>
       </c>
       <c r="T33" s="4">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="U33" s="4">
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="str">
-        <f t="shared" ref="A34:A69" si="5">RIGHT(D34,1)</f>
+        <f t="shared" ref="A34:A69" si="10">RIGHT(D34,1)</f>
         <v>0</v>
       </c>
       <c r="B34" t="s">
@@ -4507,54 +4732,57 @@
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
       <c r="I34" s="3"/>
-      <c r="J34" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J34" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K34" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L34" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L34" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M34" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M34" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;Q34,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N34" s="4" t="str">
+      <c r="N34" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D34&amp;" - "&amp;R34,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O34" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C34,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O34" s="5" t="str">
-        <f>IF(EXACT(N34,E34),"ü","x")</f>
+      <c r="P34" s="5" t="str">
+        <f t="shared" ref="P34:P65" si="11">IF(EXACT(O34,E34),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="P34" s="4">
-        <f>ROW(A34)</f>
+      <c r="Q34" s="4">
+        <f t="shared" ref="Q34:Q69" si="12">ROW(A34)</f>
         <v>34</v>
       </c>
-      <c r="Q34" s="2" t="str">
-        <f>YEAR(J34)&amp;TEXT(MONTH(J34),"00")</f>
+      <c r="R34" s="2" t="str">
+        <f t="shared" ref="R34:R66" si="13">YEAR(K34)&amp;TEXT(MONTH(K34),"00")</f>
         <v>202306</v>
       </c>
-      <c r="R34" s="4">
-        <f>IF(C34=C33,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S34" s="4">
-        <f>IF(C34=C35,1,0)</f>
+        <f t="shared" ref="S34:S67" si="14">IF(C34=C33,1,0)</f>
         <v>1</v>
       </c>
       <c r="T34" s="4">
-        <f t="shared" ref="T34:T65" si="6">SUM(R34:S34)</f>
+        <f t="shared" ref="T34:T67" si="15">IF(C34=C35,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U34" s="4">
+        <f t="shared" ref="U34:U65" si="16">SUM(S34:T34)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B35" t="s">
@@ -4575,54 +4803,57 @@
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
       <c r="I35" s="3"/>
-      <c r="J35" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J35" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K35" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L35" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L35" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M35" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M35" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;Q35,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N35" s="4" t="str">
+      <c r="N35" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D35&amp;" - "&amp;R35,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O35" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C35,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O35" s="5" t="str">
-        <f>IF(EXACT(N35,E35),"ü","x")</f>
+      <c r="P35" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P35" s="4">
-        <f>ROW(A35)</f>
+      <c r="Q35" s="4">
+        <f t="shared" si="12"/>
         <v>35</v>
       </c>
-      <c r="Q35" s="2" t="str">
-        <f>YEAR(J35)&amp;TEXT(MONTH(J35),"00")</f>
+      <c r="R35" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R35" s="4">
-        <f>IF(C35=C34,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S35" s="4">
-        <f>IF(C35=C36,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T35" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U35" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B36" t="s">
@@ -4643,54 +4874,57 @@
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
       <c r="I36" s="3"/>
-      <c r="J36" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J36" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K36" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L36" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L36" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M36" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M36" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;Q36,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N36" s="4" t="str">
+      <c r="N36" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D36&amp;" - "&amp;R36,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O36" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C36,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O36" s="5" t="str">
-        <f>IF(EXACT(N36,E36),"ü","x")</f>
+      <c r="P36" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P36" s="4">
-        <f>ROW(A36)</f>
+      <c r="Q36" s="4">
+        <f t="shared" si="12"/>
         <v>36</v>
       </c>
-      <c r="Q36" s="2" t="str">
-        <f>YEAR(J36)&amp;TEXT(MONTH(J36),"00")</f>
+      <c r="R36" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R36" s="4">
-        <f>IF(C36=C35,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S36" s="4">
-        <f>IF(C36=C37,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T36" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U36" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B37" t="s">
@@ -4711,54 +4945,57 @@
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
-      <c r="J37" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J37" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K37" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L37" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L37" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M37" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M37" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;Q37,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N37" s="4" t="str">
+      <c r="N37" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D37&amp;" - "&amp;R37,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O37" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C37,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O37" s="5" t="str">
-        <f>IF(EXACT(N37,E37),"ü","x")</f>
+      <c r="P37" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P37" s="4">
-        <f>ROW(A37)</f>
+      <c r="Q37" s="4">
+        <f t="shared" si="12"/>
         <v>37</v>
       </c>
-      <c r="Q37" s="2" t="str">
-        <f>YEAR(J37)&amp;TEXT(MONTH(J37),"00")</f>
+      <c r="R37" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R37" s="4">
-        <f>IF(C37=C36,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S37" s="4">
-        <f>IF(C37=C38,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T37" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U37" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B38" t="s">
@@ -4779,54 +5016,57 @@
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
-      <c r="J38" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J38" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K38" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L38" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L38" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M38" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M38" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;Q38,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N38" s="4" t="str">
+      <c r="N38" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D38&amp;" - "&amp;R38,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O38" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C38,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O38" s="5" t="str">
-        <f>IF(EXACT(N38,E38),"ü","x")</f>
+      <c r="P38" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P38" s="4">
-        <f>ROW(A38)</f>
+      <c r="Q38" s="4">
+        <f t="shared" si="12"/>
         <v>38</v>
       </c>
-      <c r="Q38" s="2" t="str">
-        <f>YEAR(J38)&amp;TEXT(MONTH(J38),"00")</f>
+      <c r="R38" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R38" s="4">
-        <f>IF(C38=C37,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S38" s="4">
-        <f>IF(C38=C39,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T38" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U38" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B39" t="s">
@@ -4847,54 +5087,57 @@
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
       <c r="I39" s="3"/>
-      <c r="J39" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J39" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K39" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L39" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L39" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M39" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M39" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;Q39,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N39" s="4" t="str">
+      <c r="N39" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D39&amp;" - "&amp;R39,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O39" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C39,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O39" s="5" t="str">
-        <f>IF(EXACT(N39,E39),"ü","x")</f>
+      <c r="P39" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P39" s="4">
-        <f>ROW(A39)</f>
+      <c r="Q39" s="4">
+        <f t="shared" si="12"/>
         <v>39</v>
       </c>
-      <c r="Q39" s="2" t="str">
-        <f>YEAR(J39)&amp;TEXT(MONTH(J39),"00")</f>
+      <c r="R39" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R39" s="4">
-        <f>IF(C39=C38,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S39" s="4">
-        <f>IF(C39=C40,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T39" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U39" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B40" t="s">
@@ -4915,54 +5158,57 @@
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
-      <c r="J40" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J40" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K40" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L40" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L40" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M40" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M40" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;Q40,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N40" s="4" t="str">
+      <c r="N40" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D40&amp;" - "&amp;R40,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O40" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C40,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O40" s="5" t="str">
-        <f>IF(EXACT(N40,E40),"ü","x")</f>
+      <c r="P40" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P40" s="4">
-        <f>ROW(A40)</f>
+      <c r="Q40" s="4">
+        <f t="shared" si="12"/>
         <v>40</v>
       </c>
-      <c r="Q40" s="2" t="str">
-        <f>YEAR(J40)&amp;TEXT(MONTH(J40),"00")</f>
+      <c r="R40" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R40" s="4">
-        <f>IF(C40=C39,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S40" s="4">
-        <f>IF(C40=C41,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T40" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U40" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B41" t="s">
@@ -4983,54 +5229,57 @@
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
       <c r="I41" s="3"/>
-      <c r="J41" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J41" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K41" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L41" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L41" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M41" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M41" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;Q41,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N41" s="4" t="str">
+      <c r="N41" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D41&amp;" - "&amp;R41,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O41" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C41,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O41" s="5" t="str">
-        <f>IF(EXACT(N41,E41),"ü","x")</f>
+      <c r="P41" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P41" s="4">
-        <f>ROW(A41)</f>
+      <c r="Q41" s="4">
+        <f t="shared" si="12"/>
         <v>41</v>
       </c>
-      <c r="Q41" s="2" t="str">
-        <f>YEAR(J41)&amp;TEXT(MONTH(J41),"00")</f>
+      <c r="R41" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R41" s="4">
-        <f>IF(C41=C40,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S41" s="4">
-        <f>IF(C41=C42,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T41" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U41" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B42" t="s">
@@ -5051,54 +5300,57 @@
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
       <c r="I42" s="3"/>
-      <c r="J42" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J42" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K42" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L42" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L42" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M42" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M42" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;Q42,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N42" s="4" t="str">
+      <c r="N42" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D42&amp;" - "&amp;R42,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O42" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C42,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O42" s="5" t="str">
-        <f>IF(EXACT(N42,E42),"ü","x")</f>
+      <c r="P42" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P42" s="4">
-        <f>ROW(A42)</f>
+      <c r="Q42" s="4">
+        <f t="shared" si="12"/>
         <v>42</v>
       </c>
-      <c r="Q42" s="2" t="str">
-        <f>YEAR(J42)&amp;TEXT(MONTH(J42),"00")</f>
+      <c r="R42" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R42" s="4">
-        <f>IF(C42=C41,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S42" s="4">
-        <f>IF(C42=C43,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T42" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U42" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B43" t="s">
@@ -5119,54 +5371,57 @@
       <c r="G43" s="3"/>
       <c r="H43" s="3"/>
       <c r="I43" s="3"/>
-      <c r="J43" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J43" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K43" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L43" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L43" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M43" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M43" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;Q43,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N43" s="4" t="str">
+      <c r="N43" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D43&amp;" - "&amp;R43,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O43" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C43,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O43" s="5" t="str">
-        <f>IF(EXACT(N43,E43),"ü","x")</f>
+      <c r="P43" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P43" s="4">
-        <f>ROW(A43)</f>
+      <c r="Q43" s="4">
+        <f t="shared" si="12"/>
         <v>43</v>
       </c>
-      <c r="Q43" s="2" t="str">
-        <f>YEAR(J43)&amp;TEXT(MONTH(J43),"00")</f>
+      <c r="R43" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R43" s="4">
-        <f>IF(C43=C42,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S43" s="4">
-        <f>IF(C43=C44,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T43" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U43" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B44" t="s">
@@ -5187,54 +5442,57 @@
       <c r="G44" s="3"/>
       <c r="H44" s="3"/>
       <c r="I44" s="3"/>
-      <c r="J44" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J44" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K44" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L44" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L44" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M44" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M44" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;Q44,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N44" s="4" t="str">
+      <c r="N44" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D44&amp;" - "&amp;R44,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O44" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C44,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O44" s="5" t="str">
-        <f>IF(EXACT(N44,E44),"ü","x")</f>
+      <c r="P44" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P44" s="4">
-        <f>ROW(A44)</f>
+      <c r="Q44" s="4">
+        <f t="shared" si="12"/>
         <v>44</v>
       </c>
-      <c r="Q44" s="2" t="str">
-        <f>YEAR(J44)&amp;TEXT(MONTH(J44),"00")</f>
+      <c r="R44" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R44" s="4">
-        <f>IF(C44=C43,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S44" s="4">
-        <f>IF(C44=C45,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T44" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U44" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B45" t="s">
@@ -5255,54 +5513,57 @@
       <c r="G45" s="3"/>
       <c r="H45" s="3"/>
       <c r="I45" s="3"/>
-      <c r="J45" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J45" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K45" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L45" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L45" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M45" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M45" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;Q45,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N45" s="4" t="str">
+      <c r="N45" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D45&amp;" - "&amp;R45,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O45" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C45,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O45" s="5" t="str">
-        <f>IF(EXACT(N45,E45),"ü","x")</f>
+      <c r="P45" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P45" s="4">
-        <f>ROW(A45)</f>
+      <c r="Q45" s="4">
+        <f t="shared" si="12"/>
         <v>45</v>
       </c>
-      <c r="Q45" s="2" t="str">
-        <f>YEAR(J45)&amp;TEXT(MONTH(J45),"00")</f>
+      <c r="R45" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R45" s="4">
-        <f>IF(C45=C44,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S45" s="4">
-        <f>IF(C45=C46,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T45" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U45" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B46" t="s">
@@ -5323,54 +5584,57 @@
       <c r="G46" s="3"/>
       <c r="H46" s="3"/>
       <c r="I46" s="3"/>
-      <c r="J46" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J46" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K46" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L46" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L46" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M46" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M46" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;Q46,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N46" s="4" t="str">
+      <c r="N46" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D46&amp;" - "&amp;R46,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O46" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C46,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O46" s="5" t="str">
-        <f>IF(EXACT(N46,E46),"ü","x")</f>
+      <c r="P46" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P46" s="4">
-        <f>ROW(A46)</f>
+      <c r="Q46" s="4">
+        <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="Q46" s="2" t="str">
-        <f>YEAR(J46)&amp;TEXT(MONTH(J46),"00")</f>
+      <c r="R46" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R46" s="4">
-        <f>IF(C46=C45,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S46" s="4">
-        <f>IF(C46=C47,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T46" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U46" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B47" t="s">
@@ -5391,54 +5655,57 @@
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
-      <c r="J47" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J47" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K47" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L47" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L47" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M47" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M47" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;Q47,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N47" s="4" t="str">
+      <c r="N47" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D47&amp;" - "&amp;R47,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O47" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C47,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O47" s="5" t="str">
-        <f>IF(EXACT(N47,E47),"ü","x")</f>
+      <c r="P47" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P47" s="4">
-        <f>ROW(A47)</f>
+      <c r="Q47" s="4">
+        <f t="shared" si="12"/>
         <v>47</v>
       </c>
-      <c r="Q47" s="2" t="str">
-        <f>YEAR(J47)&amp;TEXT(MONTH(J47),"00")</f>
+      <c r="R47" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R47" s="4">
-        <f>IF(C47=C46,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S47" s="4">
-        <f>IF(C47=C48,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T47" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U47" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B48" t="s">
@@ -5459,54 +5726,57 @@
       <c r="G48" s="3"/>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
-      <c r="J48" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J48" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K48" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L48" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L48" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M48" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M48" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;Q48,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N48" s="4" t="str">
+      <c r="N48" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D48&amp;" - "&amp;R48,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O48" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C48,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O48" s="5" t="str">
-        <f>IF(EXACT(N48,E48),"ü","x")</f>
+      <c r="P48" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P48" s="4">
-        <f>ROW(A48)</f>
+      <c r="Q48" s="4">
+        <f t="shared" si="12"/>
         <v>48</v>
       </c>
-      <c r="Q48" s="2" t="str">
-        <f>YEAR(J48)&amp;TEXT(MONTH(J48),"00")</f>
+      <c r="R48" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R48" s="4">
-        <f>IF(C48=C47,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S48" s="4">
-        <f>IF(C48=C49,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T48" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U48" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A49" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B49" t="s">
@@ -5527,54 +5797,57 @@
       <c r="G49" s="3"/>
       <c r="H49" s="3"/>
       <c r="I49" s="3"/>
-      <c r="J49" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J49" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K49" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L49" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L49" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M49" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M49" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;Q49,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N49" s="4" t="str">
+      <c r="N49" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D49&amp;" - "&amp;R49,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O49" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C49,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O49" s="5" t="str">
-        <f>IF(EXACT(N49,E49),"ü","x")</f>
+      <c r="P49" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P49" s="4">
-        <f>ROW(A49)</f>
+      <c r="Q49" s="4">
+        <f t="shared" si="12"/>
         <v>49</v>
       </c>
-      <c r="Q49" s="2" t="str">
-        <f>YEAR(J49)&amp;TEXT(MONTH(J49),"00")</f>
+      <c r="R49" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R49" s="4">
-        <f>IF(C49=C48,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S49" s="4">
-        <f>IF(C49=C50,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T49" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U49" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A50" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B50" t="s">
@@ -5595,54 +5868,57 @@
       <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
-      <c r="J50" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J50" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K50" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L50" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L50" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M50" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M50" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;Q50,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N50" s="4" t="str">
+      <c r="N50" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D50&amp;" - "&amp;R50,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O50" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C50,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O50" s="5" t="str">
-        <f>IF(EXACT(N50,E50),"ü","x")</f>
+      <c r="P50" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P50" s="4">
-        <f>ROW(A50)</f>
+      <c r="Q50" s="4">
+        <f t="shared" si="12"/>
         <v>50</v>
       </c>
-      <c r="Q50" s="2" t="str">
-        <f>YEAR(J50)&amp;TEXT(MONTH(J50),"00")</f>
+      <c r="R50" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R50" s="4">
-        <f>IF(C50=C49,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S50" s="4">
-        <f>IF(C50=C51,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T50" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U50" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A51" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B51" t="s">
@@ -5663,54 +5939,57 @@
       <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
-      <c r="J51" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J51" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K51" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L51" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L51" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M51" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M51" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;Q51,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N51" s="4" t="str">
+      <c r="N51" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D51&amp;" - "&amp;R51,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O51" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C51,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O51" s="5" t="str">
-        <f>IF(EXACT(N51,E51),"ü","x")</f>
+      <c r="P51" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P51" s="4">
-        <f>ROW(A51)</f>
+      <c r="Q51" s="4">
+        <f t="shared" si="12"/>
         <v>51</v>
       </c>
-      <c r="Q51" s="2" t="str">
-        <f>YEAR(J51)&amp;TEXT(MONTH(J51),"00")</f>
+      <c r="R51" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R51" s="4">
-        <f>IF(C51=C50,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S51" s="4">
-        <f>IF(C51=C52,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T51" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U51" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A52" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B52" t="s">
@@ -5731,54 +6010,57 @@
       <c r="G52" s="3"/>
       <c r="H52" s="3"/>
       <c r="I52" s="3"/>
-      <c r="J52" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J52" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K52" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L52" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L52" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M52" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M52" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;Q52,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N52" s="4" t="str">
+      <c r="N52" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D52&amp;" - "&amp;R52,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O52" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C52,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O52" s="5" t="str">
-        <f>IF(EXACT(N52,E52),"ü","x")</f>
+      <c r="P52" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P52" s="4">
-        <f>ROW(A52)</f>
+      <c r="Q52" s="4">
+        <f t="shared" si="12"/>
         <v>52</v>
       </c>
-      <c r="Q52" s="2" t="str">
-        <f>YEAR(J52)&amp;TEXT(MONTH(J52),"00")</f>
+      <c r="R52" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R52" s="4">
-        <f>IF(C52=C51,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S52" s="4">
-        <f>IF(C52=C53,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T52" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U52" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A53" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B53" t="s">
@@ -5799,54 +6081,57 @@
       <c r="G53" s="3"/>
       <c r="H53" s="3"/>
       <c r="I53" s="3"/>
-      <c r="J53" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J53" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K53" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L53" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L53" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M53" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M53" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;Q53,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N53" s="4" t="str">
+      <c r="N53" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D53&amp;" - "&amp;R53,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O53" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C53,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O53" s="5" t="str">
-        <f>IF(EXACT(N53,E53),"ü","x")</f>
+      <c r="P53" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P53" s="4">
-        <f>ROW(A53)</f>
+      <c r="Q53" s="4">
+        <f t="shared" si="12"/>
         <v>53</v>
       </c>
-      <c r="Q53" s="2" t="str">
-        <f>YEAR(J53)&amp;TEXT(MONTH(J53),"00")</f>
+      <c r="R53" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R53" s="4">
-        <f>IF(C53=C52,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S53" s="4">
-        <f>IF(C53=C54,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T53" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U53" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A54" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B54" t="s">
@@ -5867,54 +6152,57 @@
       <c r="G54" s="3"/>
       <c r="H54" s="3"/>
       <c r="I54" s="3"/>
-      <c r="J54" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J54" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K54" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L54" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L54" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M54" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M54" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;Q54,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N54" s="4" t="str">
+      <c r="N54" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D54&amp;" - "&amp;R54,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O54" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C54,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O54" s="5" t="str">
-        <f>IF(EXACT(N54,E54),"ü","x")</f>
+      <c r="P54" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P54" s="4">
-        <f>ROW(A54)</f>
+      <c r="Q54" s="4">
+        <f t="shared" si="12"/>
         <v>54</v>
       </c>
-      <c r="Q54" s="2" t="str">
-        <f>YEAR(J54)&amp;TEXT(MONTH(J54),"00")</f>
+      <c r="R54" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R54" s="4">
-        <f>IF(C54=C53,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S54" s="4">
-        <f>IF(C54=C55,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T54" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U54" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A55" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B55" t="s">
@@ -5935,54 +6223,57 @@
       <c r="G55" s="3"/>
       <c r="H55" s="3"/>
       <c r="I55" s="3"/>
-      <c r="J55" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J55" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K55" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L55" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L55" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M55" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M55" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;Q55,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N55" s="4" t="str">
+      <c r="N55" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D55&amp;" - "&amp;R55,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O55" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C55,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O55" s="5" t="str">
-        <f>IF(EXACT(N55,E55),"ü","x")</f>
+      <c r="P55" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P55" s="4">
-        <f>ROW(A55)</f>
+      <c r="Q55" s="4">
+        <f t="shared" si="12"/>
         <v>55</v>
       </c>
-      <c r="Q55" s="2" t="str">
-        <f>YEAR(J55)&amp;TEXT(MONTH(J55),"00")</f>
+      <c r="R55" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R55" s="4">
-        <f>IF(C55=C54,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S55" s="4">
-        <f>IF(C55=C56,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T55" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U55" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A56" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B56" t="s">
@@ -6003,54 +6294,57 @@
       <c r="G56" s="3"/>
       <c r="H56" s="3"/>
       <c r="I56" s="3"/>
-      <c r="J56" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J56" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K56" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L56" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L56" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M56" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M56" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;Q56,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N56" s="4" t="str">
+      <c r="N56" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D56&amp;" - "&amp;R56,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O56" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C56,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O56" s="5" t="str">
-        <f>IF(EXACT(N56,E56),"ü","x")</f>
+      <c r="P56" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P56" s="4">
-        <f>ROW(A56)</f>
+      <c r="Q56" s="4">
+        <f t="shared" si="12"/>
         <v>56</v>
       </c>
-      <c r="Q56" s="2" t="str">
-        <f>YEAR(J56)&amp;TEXT(MONTH(J56),"00")</f>
+      <c r="R56" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R56" s="4">
-        <f>IF(C56=C55,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S56" s="4">
-        <f>IF(C56=C57,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T56" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U56" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A57" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B57" t="s">
@@ -6071,54 +6365,57 @@
       <c r="G57" s="3"/>
       <c r="H57" s="3"/>
       <c r="I57" s="3"/>
-      <c r="J57" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J57" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K57" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L57" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L57" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M57" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M57" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;Q57,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N57" s="4" t="str">
+      <c r="N57" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D57&amp;" - "&amp;R57,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O57" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C57,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O57" s="5" t="str">
-        <f>IF(EXACT(N57,E57),"ü","x")</f>
+      <c r="P57" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P57" s="4">
-        <f>ROW(A57)</f>
+      <c r="Q57" s="4">
+        <f t="shared" si="12"/>
         <v>57</v>
       </c>
-      <c r="Q57" s="2" t="str">
-        <f>YEAR(J57)&amp;TEXT(MONTH(J57),"00")</f>
+      <c r="R57" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R57" s="4">
-        <f>IF(C57=C56,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S57" s="4">
-        <f>IF(C57=C58,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T57" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U57" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A58" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B58" t="s">
@@ -6139,54 +6436,57 @@
       <c r="G58" s="3"/>
       <c r="H58" s="3"/>
       <c r="I58" s="3"/>
-      <c r="J58" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J58" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K58" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L58" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L58" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M58" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M58" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;Q58,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N58" s="4" t="str">
+      <c r="N58" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D58&amp;" - "&amp;R58,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O58" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C58,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O58" s="5" t="str">
-        <f>IF(EXACT(N58,E58),"ü","x")</f>
+      <c r="P58" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P58" s="4">
-        <f>ROW(A58)</f>
+      <c r="Q58" s="4">
+        <f t="shared" si="12"/>
         <v>58</v>
       </c>
-      <c r="Q58" s="2" t="str">
-        <f>YEAR(J58)&amp;TEXT(MONTH(J58),"00")</f>
+      <c r="R58" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R58" s="4">
-        <f>IF(C58=C57,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S58" s="4">
-        <f>IF(C58=C59,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T58" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U58" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A59" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B59" t="s">
@@ -6207,54 +6507,57 @@
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
       <c r="I59" s="3"/>
-      <c r="J59" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J59" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K59" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L59" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L59" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M59" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M59" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;Q59,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N59" s="4" t="str">
+      <c r="N59" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D59&amp;" - "&amp;R59,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O59" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C59,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O59" s="5" t="str">
-        <f>IF(EXACT(N59,E59),"ü","x")</f>
+      <c r="P59" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P59" s="4">
-        <f>ROW(A59)</f>
+      <c r="Q59" s="4">
+        <f t="shared" si="12"/>
         <v>59</v>
       </c>
-      <c r="Q59" s="2" t="str">
-        <f>YEAR(J59)&amp;TEXT(MONTH(J59),"00")</f>
+      <c r="R59" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R59" s="4">
-        <f>IF(C59=C58,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S59" s="4">
-        <f>IF(C59=C60,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T59" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U59" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A60" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B60" t="s">
@@ -6275,54 +6578,57 @@
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
       <c r="I60" s="3"/>
-      <c r="J60" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J60" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K60" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L60" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L60" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M60" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M60" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;Q60,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N60" s="4" t="str">
+      <c r="N60" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D60&amp;" - "&amp;R60,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O60" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C60,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O60" s="5" t="str">
-        <f>IF(EXACT(N60,E60),"ü","x")</f>
+      <c r="P60" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P60" s="4">
-        <f>ROW(A60)</f>
+      <c r="Q60" s="4">
+        <f t="shared" si="12"/>
         <v>60</v>
       </c>
-      <c r="Q60" s="2" t="str">
-        <f>YEAR(J60)&amp;TEXT(MONTH(J60),"00")</f>
+      <c r="R60" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R60" s="4">
-        <f>IF(C60=C59,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S60" s="4">
-        <f>IF(C60=C61,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T60" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U60" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A61" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B61" t="s">
@@ -6343,54 +6649,57 @@
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
       <c r="I61" s="3"/>
-      <c r="J61" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J61" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K61" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L61" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L61" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M61" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M61" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;Q61,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N61" s="4" t="str">
+      <c r="N61" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D61&amp;" - "&amp;R61,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O61" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C61,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O61" s="5" t="str">
-        <f>IF(EXACT(N61,E61),"ü","x")</f>
+      <c r="P61" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P61" s="4">
-        <f>ROW(A61)</f>
+      <c r="Q61" s="4">
+        <f t="shared" si="12"/>
         <v>61</v>
       </c>
-      <c r="Q61" s="2" t="str">
-        <f>YEAR(J61)&amp;TEXT(MONTH(J61),"00")</f>
+      <c r="R61" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R61" s="4">
-        <f>IF(C61=C60,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S61" s="4">
-        <f>IF(C61=C62,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T61" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U61" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A62" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B62" t="s">
@@ -6411,54 +6720,57 @@
       <c r="G62" s="3"/>
       <c r="H62" s="3"/>
       <c r="I62" s="3"/>
-      <c r="J62" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J62" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K62" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L62" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L62" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M62" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M62" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;Q62,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N62" s="4" t="str">
+      <c r="N62" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D62&amp;" - "&amp;R62,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O62" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C62,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O62" s="5" t="str">
-        <f>IF(EXACT(N62,E62),"ü","x")</f>
+      <c r="P62" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P62" s="4">
-        <f>ROW(A62)</f>
+      <c r="Q62" s="4">
+        <f t="shared" si="12"/>
         <v>62</v>
       </c>
-      <c r="Q62" s="2" t="str">
-        <f>YEAR(J62)&amp;TEXT(MONTH(J62),"00")</f>
+      <c r="R62" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R62" s="4">
-        <f>IF(C62=C61,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S62" s="4">
-        <f>IF(C62=C63,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T62" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U62" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A63" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B63" t="s">
@@ -6479,54 +6791,57 @@
       <c r="G63" s="3"/>
       <c r="H63" s="3"/>
       <c r="I63" s="3"/>
-      <c r="J63" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J63" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K63" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L63" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L63" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M63" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M63" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;Q63,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N63" s="4" t="str">
+      <c r="N63" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D63&amp;" - "&amp;R63,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O63" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C63,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O63" s="5" t="str">
-        <f>IF(EXACT(N63,E63),"ü","x")</f>
+      <c r="P63" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P63" s="4">
-        <f>ROW(A63)</f>
+      <c r="Q63" s="4">
+        <f t="shared" si="12"/>
         <v>63</v>
       </c>
-      <c r="Q63" s="2" t="str">
-        <f>YEAR(J63)&amp;TEXT(MONTH(J63),"00")</f>
+      <c r="R63" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R63" s="4">
-        <f>IF(C63=C62,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S63" s="4">
-        <f>IF(C63=C64,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T63" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U63" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A64" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B64" t="s">
@@ -6547,54 +6862,57 @@
       <c r="G64" s="3"/>
       <c r="H64" s="3"/>
       <c r="I64" s="3"/>
-      <c r="J64" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J64" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K64" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L64" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L64" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M64" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M64" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;Q64,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N64" s="4" t="str">
+      <c r="N64" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D64&amp;" - "&amp;R64,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O64" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C64,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O64" s="5" t="str">
-        <f>IF(EXACT(N64,E64),"ü","x")</f>
+      <c r="P64" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P64" s="4">
-        <f>ROW(A64)</f>
+      <c r="Q64" s="4">
+        <f t="shared" si="12"/>
         <v>64</v>
       </c>
-      <c r="Q64" s="2" t="str">
-        <f>YEAR(J64)&amp;TEXT(MONTH(J64),"00")</f>
+      <c r="R64" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R64" s="4">
-        <f>IF(C64=C63,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S64" s="4">
-        <f>IF(C64=C65,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T64" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U64" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A65" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B65" t="s">
@@ -6615,54 +6933,57 @@
       <c r="G65" s="3"/>
       <c r="H65" s="3"/>
       <c r="I65" s="3"/>
-      <c r="J65" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J65" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K65" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L65" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L65" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M65" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M65" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;Q65,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N65" s="4" t="str">
+      <c r="N65" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D65&amp;" - "&amp;R65,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O65" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C65,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O65" s="5" t="str">
-        <f>IF(EXACT(N65,E65),"ü","x")</f>
+      <c r="P65" s="5" t="str">
+        <f t="shared" si="11"/>
         <v>x</v>
       </c>
-      <c r="P65" s="4">
-        <f>ROW(A65)</f>
+      <c r="Q65" s="4">
+        <f t="shared" si="12"/>
         <v>65</v>
       </c>
-      <c r="Q65" s="2" t="str">
-        <f>YEAR(J65)&amp;TEXT(MONTH(J65),"00")</f>
+      <c r="R65" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R65" s="4">
-        <f>IF(C65=C64,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S65" s="4">
-        <f>IF(C65=C66,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T65" s="4">
-        <f t="shared" si="6"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U65" s="4">
+        <f t="shared" si="16"/>
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B66" t="s">
@@ -6683,54 +7004,57 @@
       <c r="G66" s="3"/>
       <c r="H66" s="3"/>
       <c r="I66" s="3"/>
-      <c r="J66" s="2">
-        <f t="shared" si="2"/>
-        <v>45078</v>
+      <c r="J66" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K66" s="2">
-        <f t="shared" si="3"/>
+        <f t="shared" si="7"/>
+        <v>45078</v>
+      </c>
+      <c r="L66" s="2">
+        <f t="shared" si="8"/>
         <v>45107</v>
       </c>
-      <c r="L66" s="2" t="str">
-        <f t="shared" si="4"/>
+      <c r="M66" s="2" t="str">
+        <f t="shared" si="9"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M66" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;Q66,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N66" s="4" t="str">
+      <c r="N66" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D66&amp;" - "&amp;R66,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O66" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C66,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O66" s="5" t="str">
-        <f>IF(EXACT(N66,E66),"ü","x")</f>
+      <c r="P66" s="5" t="str">
+        <f t="shared" ref="P66:P97" si="17">IF(EXACT(O66,E66),"ü","x")</f>
         <v>x</v>
       </c>
-      <c r="P66" s="4">
-        <f>ROW(A66)</f>
+      <c r="Q66" s="4">
+        <f t="shared" si="12"/>
         <v>66</v>
       </c>
-      <c r="Q66" s="2" t="str">
-        <f>YEAR(J66)&amp;TEXT(MONTH(J66),"00")</f>
+      <c r="R66" s="2" t="str">
+        <f t="shared" si="13"/>
         <v>202306</v>
       </c>
-      <c r="R66" s="4">
-        <f>IF(C66=C65,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S66" s="4">
-        <f>IF(C66=C67,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T66" s="4">
-        <f t="shared" ref="T66:T69" si="7">SUM(R66:S66)</f>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U66" s="4">
+        <f t="shared" ref="U66:U69" si="18">SUM(S66:T66)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A67" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B67" t="s">
@@ -6751,54 +7075,57 @@
       <c r="G67" s="3"/>
       <c r="H67" s="3"/>
       <c r="I67" s="3"/>
-      <c r="J67" s="2">
-        <f t="shared" ref="J67:J69" si="8">F67</f>
-        <v>45078</v>
+      <c r="J67" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K67" s="2">
-        <f t="shared" ref="K67:K69" si="9">EOMONTH(F67,0)</f>
+        <f t="shared" ref="K67:K69" si="19">F67</f>
+        <v>45078</v>
+      </c>
+      <c r="L67" s="2">
+        <f t="shared" ref="L67:L69" si="20">EOMONTH(F67,0)</f>
         <v>45107</v>
       </c>
-      <c r="L67" s="2" t="str">
-        <f t="shared" ref="L67:L69" si="10">CONCATENATE(TEXT(A67,"0")," - ","DDJJ IVA - ",YEAR(J67),TEXT(MONTH(J67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
+      <c r="M67" s="2" t="str">
+        <f t="shared" ref="M67:M69" si="21">CONCATENATE(TEXT(A67,"0")," - ","DDJJ IVA - ",YEAR(K67),TEXT(MONTH(K67),"00")," - ",SUBSTITUTE(D67,"-","")," - ",B67)</f>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M67" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;Q67,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N67" s="4" t="str">
+      <c r="N67" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D67&amp;" - "&amp;R67,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O67" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C67,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O67" s="5" t="str">
-        <f>IF(EXACT(N67,E67),"ü","x")</f>
+      <c r="P67" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
-      <c r="P67" s="4">
-        <f>ROW(A67)</f>
+      <c r="Q67" s="4">
+        <f t="shared" si="12"/>
         <v>67</v>
       </c>
-      <c r="Q67" s="2" t="str">
-        <f t="shared" ref="Q67:Q69" si="11">YEAR(J67)&amp;TEXT(MONTH(J67),"00")</f>
+      <c r="R67" s="2" t="str">
+        <f t="shared" ref="R67:R69" si="22">YEAR(K67)&amp;TEXT(MONTH(K67),"00")</f>
         <v>202306</v>
       </c>
-      <c r="R67" s="4">
-        <f>IF(C67=C66,1,0)</f>
-        <v>1</v>
-      </c>
       <c r="S67" s="4">
-        <f>IF(C67=C68,1,0)</f>
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
       <c r="T67" s="4">
-        <f t="shared" si="7"/>
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="U67" s="4">
+        <f t="shared" si="18"/>
         <v>2</v>
       </c>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A68" s="4" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="B68" t="s">
@@ -6819,54 +7146,57 @@
       <c r="G68" s="3"/>
       <c r="H68" s="3"/>
       <c r="I68" s="3"/>
-      <c r="J68" s="2">
-        <f t="shared" si="8"/>
-        <v>45078</v>
+      <c r="J68" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K68" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
+        <v>45078</v>
+      </c>
+      <c r="L68" s="2">
+        <f t="shared" si="20"/>
         <v>45107</v>
       </c>
-      <c r="L68" s="2" t="str">
+      <c r="M68" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
+      </c>
+      <c r="N68" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;R68,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O68" s="4" t="str">
+        <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
+        <v/>
+      </c>
+      <c r="P68" s="5" t="str">
+        <f t="shared" si="17"/>
+        <v>x</v>
+      </c>
+      <c r="Q68" s="4">
+        <f t="shared" si="12"/>
+        <v>68</v>
+      </c>
+      <c r="R68" s="2" t="str">
+        <f t="shared" si="22"/>
+        <v>202306</v>
+      </c>
+      <c r="S68" s="4">
+        <f t="shared" ref="S68:S69" si="23">IF(C68=C67,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="T68" s="4">
+        <f t="shared" ref="T68:T69" si="24">IF(C68=C69,1,0)</f>
+        <v>1</v>
+      </c>
+      <c r="U68" s="4">
+        <f t="shared" si="18"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="str">
         <f t="shared" si="10"/>
-        <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
-      </c>
-      <c r="M68" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D68&amp;" - "&amp;Q68,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N68" s="4" t="str">
-        <f>_xlfn.IFNA(VLOOKUP(C68,[2]Hoja1!$J:$L,3,0),"")</f>
-        <v/>
-      </c>
-      <c r="O68" s="5" t="str">
-        <f>IF(EXACT(N68,E68),"ü","x")</f>
-        <v>x</v>
-      </c>
-      <c r="P68" s="4">
-        <f>ROW(A68)</f>
-        <v>68</v>
-      </c>
-      <c r="Q68" s="2" t="str">
-        <f t="shared" si="11"/>
-        <v>202306</v>
-      </c>
-      <c r="R68" s="4">
-        <f t="shared" ref="R68:R69" si="12">IF(C68=C67,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="S68" s="4">
-        <f t="shared" ref="S68:S69" si="13">IF(C68=C69,1,0)</f>
-        <v>1</v>
-      </c>
-      <c r="T68" s="4">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A69" s="4" t="str">
-        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="B69" t="s">
@@ -6887,58 +7217,67 @@
       <c r="G69" s="3"/>
       <c r="H69" s="3"/>
       <c r="I69" s="3"/>
-      <c r="J69" s="2">
-        <f t="shared" si="8"/>
-        <v>45078</v>
+      <c r="J69" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="K69" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="19"/>
+        <v>45078</v>
+      </c>
+      <c r="L69" s="2">
+        <f t="shared" si="20"/>
         <v>45107</v>
       </c>
-      <c r="L69" s="2" t="str">
-        <f t="shared" si="10"/>
+      <c r="M69" s="2" t="str">
+        <f t="shared" si="21"/>
         <v>0 - DDJJ IVA - 202306 - 30000000000 - Cliente</v>
       </c>
-      <c r="M69" s="5" t="str">
-        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;Q69,[1]Control!$D:$E,2,0),"")</f>
-        <v/>
-      </c>
-      <c r="N69" s="4" t="str">
+      <c r="N69" s="5" t="str">
+        <f>IFERROR(VLOOKUP(D69&amp;" - "&amp;R69,[1]Control!$D:$E,2,0),"")</f>
+        <v/>
+      </c>
+      <c r="O69" s="4" t="str">
         <f>_xlfn.IFNA(VLOOKUP(C69,[2]Hoja1!$J:$L,3,0),"")</f>
         <v/>
       </c>
-      <c r="O69" s="5" t="str">
-        <f>IF(EXACT(N69,E69),"ü","x")</f>
+      <c r="P69" s="5" t="str">
+        <f t="shared" si="17"/>
         <v>x</v>
       </c>
-      <c r="P69" s="4">
-        <f>ROW(A69)</f>
+      <c r="Q69" s="4">
+        <f t="shared" si="12"/>
         <v>69</v>
       </c>
-      <c r="Q69" s="2" t="str">
-        <f t="shared" si="11"/>
+      <c r="R69" s="2" t="str">
+        <f t="shared" si="22"/>
         <v>202306</v>
       </c>
-      <c r="R69" s="4">
-        <f t="shared" si="12"/>
-        <v>1</v>
-      </c>
       <c r="S69" s="4">
-        <f t="shared" si="13"/>
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+      <c r="T69" s="4">
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
-      <c r="T69" s="4">
-        <f t="shared" si="7"/>
+      <c r="U69" s="4">
+        <f t="shared" si="18"/>
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:T69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:Q69">
+  <autoFilter ref="A1:U69" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:R69">
     <sortCondition ref="A2:A69"/>
     <sortCondition ref="D2:D69"/>
   </sortState>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J69" xr:uid="{9580372A-110D-479A-97E3-570CB2D92230}">
+      <formula1>"SI,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>